--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-vocabulary-filtered-attributes.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-vocabulary-filtered-attributes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">VOCABULARY_TYPE</t>
   </si>
@@ -31,16 +31,10 @@
     <t xml:space="preserve">ANTIBODY.DETECTION</t>
   </si>
   <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
     <t xml:space="preserve">Label</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">FLUORESCENCE</t>
@@ -177,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -200,46 +194,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
